--- a/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
+++ b/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
+++ b/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT01239966</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Safety and Efficacy of Combined Extracorporeal CO2 Removal and Renal Replacement Therapy in Patients With the Acute Respiratory Distress Syndrome and Acute Renal Failure</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>PARSA</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -556,32 +566,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT04039711</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Evaluation of Vaginal Self-sampling Diagnostic Performances to Identify Genital Infections : A Large, Cross-sectional, Non-inferiority Trial</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -600,32 +615,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT02892253</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parathyroid Autofluorescence Visualization in Thyroid Surgery: Impact on Postoperative Hypocalcemia. A Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -644,36 +664,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT01042080</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Effect of Mechanical Ventilation With NAVA and PSV on Inspiratory Muscle Workload and Synchrony in Patients With Chronic Obstructive Pulmonary Disease</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>NAVASYNC</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -692,36 +717,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT04159727</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gut Microbiota Dysbiosis and Translocation Within Patients Suffering From Diseases Associated With Increased Intestinal Barrier Permeability : IBD and Parkinson</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Medibiote1</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -740,32 +770,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT04970563</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Detection of Asymptomatic SARS-Cov2 Infected Patients by Detection Dogs: "Proof of Concept" Study</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>

--- a/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
+++ b/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>⬛</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📘</t>
   </si>
   <si>
     <t>rouge</t>
@@ -76,7 +76,7 @@
     <t>orange</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>résultat et / ou publication posté</t>

--- a/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
+++ b/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📗</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📘</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
+++ b/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
@@ -76,19 +76,19 @@
     <t>orange</t>
   </si>
   <si>
-    <t>bleu</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
   </si>
   <si>
     <t>NCT01239966</t>

--- a/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
+++ b/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,52 +40,31 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>✅</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>rouge</t>
-  </si>
-  <si>
-    <t>vert</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 36 mois</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3: résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>1: résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
   </si>
   <si>
     <t>NCT01239966</t>
@@ -515,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,218 +525,134 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
+      <c r="I6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I7" t="s">
         <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
+++ b/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
@@ -46,36 +46,36 @@
     <t>3</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>3: résultats postés ou publiés après les 36 mois</t>
   </si>
   <si>
+    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
     <t>1: résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
     <t>4: pas de résultats postés ni publiés</t>
   </si>
   <si>
     <t>NCT01239966</t>
   </si>
   <si>
+    <t>NCT02892253</t>
+  </si>
+  <si>
     <t>NCT04039711</t>
   </si>
   <si>
-    <t>NCT02892253</t>
-  </si>
-  <si>
     <t>NCT01042080</t>
   </si>
   <si>
@@ -103,10 +103,10 @@
     <t>Safety and Efficacy of Combined Extracorporeal CO2 Removal and Renal Replacement Therapy in Patients With the Acute Respiratory Distress Syndrome and Acute Renal Failure</t>
   </si>
   <si>
+    <t>Parathyroid Autofluorescence Visualization in Thyroid Surgery: Impact on Postoperative Hypocalcemia. A Randomized Controlled Trial</t>
+  </si>
+  <si>
     <t>Evaluation of Vaginal Self-sampling Diagnostic Performances to Identify Genital Infections : A Large, Cross-sectional, Non-inferiority Trial</t>
-  </si>
-  <si>
-    <t>Parathyroid Autofluorescence Visualization in Thyroid Surgery: Impact on Postoperative Hypocalcemia. A Randomized Controlled Trial</t>
   </si>
   <si>
     <t>Effect of Mechanical Ventilation With NAVA and PSV on Inspiratory Muscle Workload and Synchrony in Patients With Chronic Obstructive Pulmonary Disease</t>
@@ -566,7 +566,7 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -586,7 +586,7 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9">

--- a/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
+++ b/publipostage2/01tfhsg94/liste_essais_cliniques_identifies_01tfhsg94.xlsx
@@ -55,16 +55,16 @@
     <t>4</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
   </si>
   <si>
     <t>NCT01239966</t>
